--- a/Base.API/wwwroot/template_student.xlsx
+++ b/Base.API/wwwroot/template_student.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FPT\Study\Summer 2024_DoAn\SEP490\materials\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4F4828-36EB-4384-8BA5-1C81A01A2FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C522768-8B42-41F5-84B5-3D16E91F4C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Import-Student" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -81,14 +81,14 @@
     <t>3. Mã số phải độc nhất, không trùng lặp với data</t>
   </si>
   <si>
-    <t>Dữ liệu tạo mới học sinh chỉ cho phép tối đa 35(hoặc hơn ;v) trong một sheet</t>
+    <t>Chỉ cho phép tối đa 35 thông tin trong một lần tạo mới học sinh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +134,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -161,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -212,6 +219,86 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -226,16 +313,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -252,10 +333,40 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -541,13 +652,13 @@
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="12" customWidth="1"/>
     <col min="3" max="3" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="47.85546875" style="1" customWidth="1"/>
@@ -557,461 +668,465 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3"/>
-      <c r="H2" s="5" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="2"/>
+      <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="H3" s="7" t="s">
+      <c r="F3" s="2"/>
+      <c r="H3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="8">
+      <c r="A4" s="2"/>
+      <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="H4" s="7" t="s">
+      <c r="F4" s="2"/>
+      <c r="H4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="8">
+      <c r="A5" s="2"/>
+      <c r="B5" s="6">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="3"/>
-      <c r="H5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="2"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="8">
+      <c r="A6" s="2"/>
+      <c r="B6" s="6">
         <v>3</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="3"/>
-      <c r="H6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="2"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="8">
+      <c r="A7" s="2"/>
+      <c r="B7" s="6">
         <v>4</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="3"/>
-      <c r="H7" s="10" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="2"/>
+      <c r="H7" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="8">
+      <c r="A8" s="2"/>
+      <c r="B8" s="6">
         <v>5</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="3"/>
-      <c r="H8" s="7" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="2"/>
+      <c r="H8" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="8">
+      <c r="A9" s="2"/>
+      <c r="B9" s="6">
         <v>6</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="3"/>
-      <c r="H9" s="7" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="2"/>
+      <c r="H9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="8">
+      <c r="A10" s="2"/>
+      <c r="B10" s="6">
         <v>7</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="3"/>
-      <c r="H10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="2"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="8">
+      <c r="A11" s="2"/>
+      <c r="B11" s="6">
         <v>8</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="3"/>
-      <c r="H11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="2"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="8">
+      <c r="A12" s="2"/>
+      <c r="B12" s="6">
         <v>9</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="3"/>
-      <c r="H12" s="10" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="2"/>
+      <c r="H12" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="8">
+      <c r="A13" s="2"/>
+      <c r="B13" s="6">
         <v>10</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="3"/>
-      <c r="H13" s="7" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="2"/>
+      <c r="H13" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="8">
+      <c r="A14" s="2"/>
+      <c r="B14" s="6">
         <v>11</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="3"/>
-      <c r="H14" s="7" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="2"/>
+      <c r="H14" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="8">
+      <c r="A15" s="2"/>
+      <c r="B15" s="6">
         <v>12</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="3"/>
-      <c r="H15" s="12" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="2"/>
+      <c r="H15" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="8">
+      <c r="A16" s="2"/>
+      <c r="B16" s="6">
         <v>13</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="3"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="8">
+      <c r="A17" s="2"/>
+      <c r="B17" s="6">
         <v>14</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="3"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="8">
+      <c r="A18" s="2"/>
+      <c r="B18" s="6">
         <v>15</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="3"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="8">
+      <c r="A19" s="2"/>
+      <c r="B19" s="6">
         <v>16</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="3"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="8">
+      <c r="A20" s="2"/>
+      <c r="B20" s="6">
         <v>17</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="3"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="8">
+      <c r="A21" s="2"/>
+      <c r="B21" s="6">
         <v>18</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="3"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="8">
+      <c r="A22" s="2"/>
+      <c r="B22" s="6">
         <v>19</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="3"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="8">
+      <c r="A23" s="2"/>
+      <c r="B23" s="6">
         <v>20</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="3"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="8">
+      <c r="A24" s="2"/>
+      <c r="B24" s="6">
         <v>21</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="3"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="8">
+      <c r="A25" s="2"/>
+      <c r="B25" s="6">
         <v>22</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="3"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="8">
+      <c r="A26" s="2"/>
+      <c r="B26" s="6">
         <v>23</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="3"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="8">
+      <c r="A27" s="2"/>
+      <c r="B27" s="6">
         <v>24</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="3"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="8">
+      <c r="A28" s="2"/>
+      <c r="B28" s="6">
         <v>25</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="3"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="8">
+      <c r="A29" s="2"/>
+      <c r="B29" s="6">
         <v>26</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="3"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="8">
+      <c r="A30" s="2"/>
+      <c r="B30" s="6">
         <v>27</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="3"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="8">
+      <c r="A31" s="2"/>
+      <c r="B31" s="6">
         <v>28</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="3"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="8">
+      <c r="A32" s="2"/>
+      <c r="B32" s="6">
         <v>29</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="3"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="8">
+      <c r="A33" s="2"/>
+      <c r="B33" s="6">
         <v>30</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="3"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="8">
+      <c r="A34" s="2"/>
+      <c r="B34" s="6">
         <v>31</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="3"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="8">
+      <c r="A35" s="2"/>
+      <c r="B35" s="6">
         <v>32</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="3"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="8">
+      <c r="A36" s="2"/>
+      <c r="B36" s="6">
         <v>33</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="3"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="8">
+      <c r="A37" s="2"/>
+      <c r="B37" s="6">
         <v>34</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="3"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="8">
+      <c r="A38" s="2"/>
+      <c r="B38" s="6">
         <v>35</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="3"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="14" t="s">
+      <c r="A39" s="2"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="17"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="20"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="20"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="23"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C51" s="15"/>
+      <c r="C51" s="12"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
@@ -1026,7 +1141,7 @@
   <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B41:D44"/>
+    <mergeCell ref="B41:E44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
